--- a/Employee_Reports21/Carlo Alcoran Tenorio Q0432.xlsx
+++ b/Employee_Reports21/Carlo Alcoran Tenorio Q0432.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1174,11 +1174,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1318,11 +1318,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1366,11 +1366,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1412,11 +1412,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1459,11 +1459,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>-83</v>
+        <v>-84</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1505,11 +1505,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>-169</v>
+        <v>-170</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1551,11 +1551,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1587,11 +1587,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1633,11 +1633,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1679,11 +1679,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1761,11 +1761,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1807,11 +1807,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1843,11 +1843,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1889,11 +1889,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1935,11 +1935,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -1981,11 +1981,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2017,11 +2017,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
